--- a/assets/findings/2024-02-07-findings.xlsx
+++ b/assets/findings/2024-02-07-findings.xlsx
@@ -640,8 +640,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -673,8 +675,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -739,8 +743,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -772,8 +778,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -838,8 +846,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>1156547</v>
@@ -874,8 +884,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -940,8 +952,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>1</v>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N5" t="n">
         <v>3741456</v>
@@ -976,8 +990,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1207,8 +1223,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -1240,8 +1258,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -1465,8 +1485,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -1498,8 +1520,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -1564,8 +1588,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -1597,8 +1623,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -1663,8 +1691,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>1156547</v>
@@ -1699,8 +1729,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -1765,8 +1797,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>1</v>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N5" t="n">
         <v>3741456</v>
@@ -1801,8 +1835,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -2032,8 +2068,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -2065,8 +2103,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -2131,8 +2171,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -2164,8 +2206,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -2230,8 +2274,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -2263,8 +2309,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -2492,8 +2540,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -2525,8 +2575,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -2591,8 +2643,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -2624,8 +2678,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -2690,8 +2746,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -2723,8 +2781,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -2789,8 +2849,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -2822,8 +2884,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -2888,8 +2952,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -2921,8 +2987,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -2987,8 +3055,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -3020,8 +3090,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -3086,8 +3158,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -3119,8 +3193,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -3185,8 +3261,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -3218,8 +3296,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -3284,8 +3364,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -3317,8 +3399,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -3383,8 +3467,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -3416,8 +3502,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -3482,8 +3570,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -3515,8 +3605,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -3581,8 +3673,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -3614,8 +3708,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -3680,8 +3776,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -3713,8 +3811,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -3962,8 +4062,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -3995,8 +4097,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -4061,8 +4165,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -4094,8 +4200,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -4321,8 +4429,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -4354,8 +4464,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -4579,8 +4691,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>517267</v>
@@ -4615,8 +4729,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -4840,8 +4956,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -4873,8 +4991,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -5098,8 +5218,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -5131,8 +5253,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -5197,8 +5321,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -5230,8 +5356,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -5296,8 +5424,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>1</v>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N4" t="n">
         <v>597583</v>
@@ -5332,8 +5462,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -5398,8 +5530,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -5431,8 +5565,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -5497,8 +5633,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -5530,8 +5668,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -5596,8 +5736,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -5629,8 +5771,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -5695,8 +5839,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -5728,8 +5874,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -5794,8 +5942,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -5827,8 +5977,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -5893,8 +6045,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -5926,8 +6080,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -6167,8 +6323,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -6200,8 +6358,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -6266,8 +6426,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -6299,8 +6461,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -6365,8 +6529,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -6398,8 +6564,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -6464,8 +6632,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -6497,8 +6667,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -6563,8 +6735,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -6596,8 +6770,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -6662,8 +6838,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -6695,8 +6873,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -6761,8 +6941,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -6794,8 +6976,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -6860,8 +7044,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -6893,8 +7079,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -6959,8 +7147,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -6992,8 +7182,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -7058,8 +7250,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -7091,8 +7285,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -7157,8 +7353,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -7190,8 +7388,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -7256,8 +7456,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -7289,8 +7491,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -7355,8 +7559,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -7388,8 +7594,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -7454,8 +7662,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -7487,8 +7697,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>1</v>
+      <c r="U15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -7553,8 +7765,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -7586,8 +7800,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -7652,8 +7868,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -7685,8 +7903,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -7751,8 +7971,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -7784,8 +8006,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -7850,8 +8074,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -7883,8 +8109,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -7949,8 +8177,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -7982,8 +8212,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -8048,8 +8280,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -8081,8 +8315,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -8147,8 +8383,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -8180,8 +8418,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -8246,8 +8486,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -8279,8 +8521,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -8345,8 +8589,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -8378,8 +8624,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -8444,8 +8692,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -8477,8 +8727,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -8543,8 +8795,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -8576,8 +8830,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -8642,8 +8898,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -8675,8 +8933,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -8741,8 +9001,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -8774,8 +9036,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -8840,8 +9104,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -8873,8 +9139,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>0</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -8939,8 +9207,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -8972,8 +9242,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -9038,8 +9310,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -9071,8 +9345,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -9137,8 +9413,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -9170,8 +9448,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>0</v>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -9236,8 +9516,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -9269,8 +9551,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -9335,8 +9619,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -9368,8 +9654,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -9434,8 +9722,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -9467,8 +9757,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>1</v>
+      <c r="U35" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -9758,8 +10050,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -9791,8 +10085,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -9857,8 +10153,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -9890,8 +10188,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -10117,8 +10417,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -10150,8 +10452,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -10216,8 +10520,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -10249,8 +10555,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -10315,8 +10623,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -10348,8 +10658,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -10414,8 +10726,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -10447,8 +10761,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -10513,8 +10829,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -10546,8 +10864,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -10612,8 +10932,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -10645,8 +10967,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -10711,8 +11035,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -10744,8 +11070,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -10810,8 +11138,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -10843,8 +11173,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -10909,8 +11241,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
@@ -10942,8 +11276,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -11008,8 +11344,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
@@ -11041,8 +11379,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -11107,8 +11447,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
@@ -11140,8 +11482,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -11206,8 +11550,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
@@ -11239,8 +11585,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -11305,8 +11653,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
@@ -11338,8 +11688,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>1</v>
+      <c r="U14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -11404,8 +11756,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
@@ -11437,8 +11791,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>1</v>
+      <c r="U15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -11503,8 +11859,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
@@ -11536,8 +11894,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>1</v>
+      <c r="U16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -11602,8 +11962,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
@@ -11635,8 +11997,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -11701,8 +12065,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
@@ -11734,8 +12100,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -11800,8 +12168,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
@@ -11833,8 +12203,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -11899,8 +12271,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
@@ -11932,8 +12306,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -11998,8 +12374,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
@@ -12031,8 +12409,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -12097,8 +12477,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
@@ -12130,8 +12512,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -12196,8 +12580,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
@@ -12229,8 +12615,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
+      <c r="U23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -12295,8 +12683,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
@@ -12328,8 +12718,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>1</v>
+      <c r="U24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -12394,8 +12786,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" s="1" t="inlineStr">
         <is>
@@ -12427,8 +12821,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>1</v>
+      <c r="U25" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -12493,8 +12889,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
@@ -12526,8 +12924,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>1</v>
+      <c r="U26" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -12592,8 +12992,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
@@ -12625,8 +13027,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>1</v>
+      <c r="U27" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -12691,8 +13095,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" s="1" t="inlineStr">
         <is>
@@ -12724,8 +13130,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>1</v>
+      <c r="U28" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -12790,8 +13198,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" s="1" t="inlineStr">
         <is>
@@ -12823,8 +13233,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>1</v>
+      <c r="U29" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -12889,8 +13301,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" s="1" t="inlineStr">
         <is>
@@ -12922,8 +13336,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>1</v>
+      <c r="U30" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -12988,8 +13404,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" s="1" t="inlineStr">
         <is>
@@ -13021,8 +13439,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>1</v>
+      <c r="U31" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -13087,8 +13507,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" s="1" t="inlineStr">
         <is>
@@ -13120,8 +13542,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>1</v>
+      <c r="U32" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -13186,8 +13610,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" s="1" t="inlineStr">
         <is>
@@ -13219,8 +13645,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>1</v>
+      <c r="U33" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -13285,8 +13713,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" s="1" t="inlineStr">
         <is>
@@ -13318,8 +13748,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>1</v>
+      <c r="U34" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -13384,8 +13816,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" s="1" t="inlineStr">
         <is>
@@ -13417,8 +13851,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>1</v>
+      <c r="U35" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -13483,8 +13919,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" s="1" t="inlineStr">
         <is>
@@ -13516,8 +13954,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>1</v>
+      <c r="U36" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -13582,8 +14022,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" s="1" t="inlineStr">
         <is>
@@ -13615,8 +14057,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>1</v>
+      <c r="U37" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -13681,8 +14125,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" s="1" t="inlineStr">
         <is>
@@ -13714,8 +14160,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>1</v>
+      <c r="U38" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -13780,8 +14228,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" s="1" t="inlineStr">
         <is>
@@ -13813,8 +14263,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>1</v>
+      <c r="U39" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -13879,8 +14331,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" s="1" t="inlineStr">
         <is>
@@ -13912,8 +14366,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>1</v>
+      <c r="U40" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -13978,8 +14434,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" s="1" t="inlineStr">
         <is>
@@ -14011,8 +14469,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>1</v>
+      <c r="U41" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -14077,8 +14537,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" s="1" t="inlineStr">
         <is>
@@ -14110,8 +14572,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>1</v>
+      <c r="U42" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -14176,8 +14640,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" s="1" t="inlineStr">
         <is>
@@ -14209,8 +14675,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>1</v>
+      <c r="U43" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -14275,8 +14743,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -14308,8 +14778,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>0</v>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -14374,8 +14846,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -14407,8 +14881,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>0</v>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -14473,8 +14949,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -14506,8 +14984,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>0</v>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -14572,8 +15052,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -14605,8 +15087,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>0</v>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -14671,8 +15155,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -14704,8 +15190,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>0</v>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -14770,8 +15258,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -14803,8 +15293,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>1</v>
+      <c r="U49" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -15122,8 +15614,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -15155,8 +15649,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -15221,8 +15717,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -15254,8 +15752,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -15320,8 +15820,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -15353,8 +15855,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -15419,8 +15923,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -15452,8 +15958,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -15518,8 +16026,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -15551,8 +16061,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -15617,8 +16129,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -15650,8 +16164,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -15716,8 +16232,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -15749,8 +16267,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -15815,8 +16335,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -15848,8 +16370,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -15914,8 +16438,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -15947,8 +16473,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -16013,8 +16541,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -16046,8 +16576,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -16112,8 +16644,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -16145,8 +16679,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -16211,8 +16747,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -16244,8 +16782,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -16310,8 +16850,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -16343,8 +16885,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -16409,8 +16953,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -16442,8 +16988,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -16693,8 +17241,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -16726,8 +17276,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -16792,8 +17344,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -16825,8 +17379,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -17052,8 +17608,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>517267</v>
@@ -17088,8 +17646,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -17313,8 +17873,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -17346,8 +17908,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -17571,8 +18135,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -17604,8 +18170,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -17829,8 +18397,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -17862,8 +18432,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -17928,8 +18500,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -17961,8 +18535,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -18027,8 +18603,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -18060,8 +18638,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -18126,8 +18706,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -18159,8 +18741,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -18225,8 +18809,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -18258,8 +18844,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -18324,8 +18912,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -18357,8 +18947,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -18423,8 +19015,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -18456,8 +19050,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -18522,8 +19118,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -18555,8 +19153,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -18621,8 +19221,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -18654,8 +19256,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -18720,8 +19324,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -18753,8 +19359,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -18819,8 +19427,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -18852,8 +19462,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -18918,8 +19530,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -18951,8 +19565,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -19017,8 +19633,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -19050,8 +19668,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -19116,8 +19736,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -19149,8 +19771,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -19215,8 +19839,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -19248,8 +19874,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>1</v>
+      <c r="U16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -19314,8 +19942,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -19347,8 +19977,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -19413,8 +20045,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -19446,8 +20080,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -19512,8 +20148,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -19545,8 +20183,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -19611,8 +20251,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -19644,8 +20286,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -19710,8 +20354,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -19743,8 +20389,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -19809,8 +20457,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -19842,8 +20492,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -19908,8 +20560,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -19941,8 +20595,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -20007,8 +20663,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -20040,8 +20698,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -20106,8 +20766,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -20139,8 +20801,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -20205,8 +20869,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -20238,8 +20904,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -20304,8 +20972,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -20337,8 +21007,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -20403,8 +21075,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -20436,8 +21110,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -20502,8 +21178,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -20535,8 +21213,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>0</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -20601,8 +21281,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -20634,8 +21316,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -20700,8 +21384,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -20733,8 +21419,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -20799,8 +21487,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -20832,8 +21522,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>0</v>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -20898,8 +21590,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -20931,8 +21625,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -20997,8 +21693,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -21030,8 +21728,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -21096,8 +21796,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -21129,8 +21831,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -21195,8 +21899,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -21228,8 +21934,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>1</v>
+      <c r="U36" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -21521,8 +22229,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -21554,8 +22264,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -21620,8 +22332,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>597583</v>
@@ -21656,8 +22370,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -21722,8 +22438,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -21755,8 +22473,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -21821,8 +22541,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -21854,8 +22576,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -21920,8 +22644,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -21953,8 +22679,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -22019,8 +22747,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -22052,8 +22782,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -22118,8 +22850,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -22151,8 +22885,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -22217,8 +22953,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -22250,8 +22988,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -22316,8 +23056,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
@@ -22349,8 +23091,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -22415,8 +23159,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
@@ -22448,8 +23194,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -22514,8 +23262,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
@@ -22547,8 +23297,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -22613,8 +23365,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
@@ -22646,8 +23400,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -22712,8 +23468,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
@@ -22745,8 +23503,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>1</v>
+      <c r="U14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -22811,8 +23571,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
@@ -22844,8 +23606,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>1</v>
+      <c r="U15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -22910,8 +23674,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
@@ -22943,8 +23709,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>1</v>
+      <c r="U16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -23009,8 +23777,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
@@ -23042,8 +23812,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -23108,8 +23880,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
@@ -23141,8 +23915,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -23207,8 +23983,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
@@ -23240,8 +24018,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -23306,8 +24086,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
@@ -23339,8 +24121,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -23405,8 +24189,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
@@ -23438,8 +24224,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -23504,8 +24292,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
@@ -23537,8 +24327,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -23603,8 +24395,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
@@ -23636,8 +24430,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
+      <c r="U23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -23702,8 +24498,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
@@ -23735,8 +24533,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>1</v>
+      <c r="U24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -23801,8 +24601,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" s="1" t="inlineStr">
         <is>
@@ -23834,8 +24636,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>1</v>
+      <c r="U25" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -23900,8 +24704,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
@@ -23933,8 +24739,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>1</v>
+      <c r="U26" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -23999,8 +24807,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
@@ -24032,8 +24842,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>1</v>
+      <c r="U27" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -24098,8 +24910,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" s="1" t="inlineStr">
         <is>
@@ -24131,8 +24945,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>1</v>
+      <c r="U28" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -24197,8 +25013,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" s="1" t="inlineStr">
         <is>
@@ -24230,8 +25048,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>1</v>
+      <c r="U29" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -24296,8 +25116,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" s="1" t="inlineStr">
         <is>
@@ -24329,8 +25151,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>1</v>
+      <c r="U30" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -24395,8 +25219,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" s="1" t="inlineStr">
         <is>
@@ -24428,8 +25254,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>1</v>
+      <c r="U31" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -24494,8 +25322,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" s="1" t="inlineStr">
         <is>
@@ -24527,8 +25357,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>1</v>
+      <c r="U32" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -24593,8 +25425,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" s="1" t="inlineStr">
         <is>
@@ -24626,8 +25460,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>1</v>
+      <c r="U33" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -24692,8 +25528,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" s="1" t="inlineStr">
         <is>
@@ -24725,8 +25563,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>1</v>
+      <c r="U34" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -24791,8 +25631,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" s="1" t="inlineStr">
         <is>
@@ -24824,8 +25666,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>1</v>
+      <c r="U35" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -24890,8 +25734,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" s="1" t="inlineStr">
         <is>
@@ -24923,8 +25769,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>1</v>
+      <c r="U36" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -24989,8 +25837,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" s="1" t="inlineStr">
         <is>
@@ -25022,8 +25872,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>1</v>
+      <c r="U37" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -25088,8 +25940,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" s="1" t="inlineStr">
         <is>
@@ -25121,8 +25975,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>1</v>
+      <c r="U38" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -25187,8 +26043,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" s="1" t="inlineStr">
         <is>
@@ -25220,8 +26078,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>1</v>
+      <c r="U39" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -25286,8 +26146,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" s="1" t="inlineStr">
         <is>
@@ -25319,8 +26181,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>1</v>
+      <c r="U40" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -25385,8 +26249,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" s="1" t="inlineStr">
         <is>
@@ -25418,8 +26284,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>1</v>
+      <c r="U41" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -25484,8 +26352,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" s="1" t="inlineStr">
         <is>
@@ -25517,8 +26387,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>1</v>
+      <c r="U42" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -25583,8 +26455,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" s="1" t="inlineStr">
         <is>
@@ -25616,8 +26490,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>1</v>
+      <c r="U43" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -25682,8 +26558,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" s="1" t="inlineStr">
         <is>
@@ -25715,8 +26593,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>1</v>
+      <c r="U44" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -25781,8 +26661,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" s="1" t="inlineStr">
         <is>
@@ -25814,8 +26696,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>1</v>
+      <c r="U45" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -25880,8 +26764,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" s="1" t="inlineStr">
         <is>
@@ -25913,8 +26799,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>1</v>
+      <c r="U46" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -25979,8 +26867,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" s="1" t="inlineStr">
         <is>
@@ -26012,8 +26902,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>1</v>
+      <c r="U47" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -26078,8 +26970,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" s="1" t="inlineStr">
         <is>
@@ -26111,8 +27005,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>1</v>
+      <c r="U48" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -26177,8 +27073,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" s="1" t="inlineStr">
         <is>
@@ -26210,8 +27108,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>1</v>
+      <c r="U49" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -26276,8 +27176,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O50" s="1" t="inlineStr">
         <is>
@@ -26309,8 +27211,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U50" t="b">
-        <v>1</v>
+      <c r="U50" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -26375,8 +27279,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O51" s="1" t="inlineStr">
         <is>
@@ -26408,8 +27314,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U51" t="b">
-        <v>1</v>
+      <c r="U51" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -26474,8 +27382,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -26507,8 +27417,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U52" t="b">
-        <v>0</v>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -26573,8 +27485,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -26606,8 +27520,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U53" t="b">
-        <v>0</v>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -26672,8 +27588,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -26705,8 +27623,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U54" t="b">
-        <v>0</v>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -26771,8 +27691,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -26804,8 +27726,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U55" t="b">
-        <v>0</v>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -26870,8 +27794,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -26903,8 +27829,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U56" t="b">
-        <v>0</v>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -26969,8 +27897,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -27002,8 +27932,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U57" t="b">
-        <v>1</v>
+      <c r="U57" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -27068,8 +28000,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M58" t="b">
-        <v>0</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -27101,8 +28035,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U58" t="b">
-        <v>0</v>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
